--- a/Interview_Questions/Unique_Questions.xlsx
+++ b/Interview_Questions/Unique_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Documents\Devopinsider\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\Interview_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C27DEE-34F2-4AE3-939A-F9E99EC1555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9FD03-4A84-486F-9A69-4363B0B6F579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" firstSheet="2" activeTab="11" xr2:uid="{34C0BCBA-2959-4DC5-A14A-FEA1DDF134B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{34C0BCBA-2959-4DC5-A14A-FEA1DDF134B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,15 +35,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2919,7 +2910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2965,18 +2956,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3310,7 +3300,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="88.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
@@ -3332,7 +3322,7 @@
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3356,7 +3346,7 @@
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3369,7 +3359,7 @@
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3377,7 +3367,7 @@
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3409,7 +3399,7 @@
       <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3446,12 +3436,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="96.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.5">
+    <row r="1" spans="2:2" ht="18">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3486,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.5">
+    <row r="10" spans="2:2" ht="18">
       <c r="B10" s="2" t="s">
         <v>143</v>
       </c>
@@ -3521,7 +3511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="17.5">
+    <row r="15" spans="2:2" ht="18">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3544,14 +3534,14 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="82.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.5">
+    <row r="1" spans="2:4" ht="18">
       <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
@@ -3615,7 +3605,7 @@
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="2:4" ht="17.5">
+    <row r="12" spans="2:4" ht="18">
       <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
@@ -3650,7 +3640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17.5">
+    <row r="19" spans="2:2" ht="18">
       <c r="B19" s="2" t="s">
         <v>106</v>
       </c>
@@ -3690,7 +3680,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="17.5">
+    <row r="27" spans="2:2" ht="18">
       <c r="B27" s="2" t="s">
         <v>113</v>
       </c>
@@ -3725,7 +3715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17.5">
+    <row r="34" spans="2:2" ht="18">
       <c r="B34" s="2" t="s">
         <v>119</v>
       </c>
@@ -3755,7 +3745,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="17.5">
+    <row r="40" spans="2:2" ht="18">
       <c r="B40" s="2" t="s">
         <v>125</v>
       </c>
@@ -3790,7 +3780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="17.5">
+    <row r="47" spans="2:2" ht="18">
       <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
@@ -3810,7 +3800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="17.5">
+    <row r="51" spans="2:2" ht="18">
       <c r="B51" s="2" t="s">
         <v>136</v>
       </c>
@@ -3862,17 +3852,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC39CD3E-ED8D-4DFC-8EEA-DE2CADA2A10A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="134.90625" customWidth="1"/>
+    <col min="1" max="1" width="134.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="193" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:1" ht="192.95" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>451</v>
       </c>
     </row>
@@ -3889,9 +3879,9 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.5">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="13" t="s">
         <v>420</v>
       </c>
@@ -3912,7 +3902,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="23.5">
+    <row r="7" spans="1:1" ht="23.25">
       <c r="A7" s="13" t="s">
         <v>423</v>
       </c>
@@ -3933,7 +3923,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="23.5">
+    <row r="13" spans="1:1" ht="23.25">
       <c r="A13" s="13" t="s">
         <v>426</v>
       </c>
@@ -3954,7 +3944,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="23.5">
+    <row r="19" spans="1:1" ht="23.25">
       <c r="A19" s="13" t="s">
         <v>429</v>
       </c>
@@ -3983,7 +3973,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="23.5">
+    <row r="27" spans="1:1" ht="23.25">
       <c r="A27" s="13" t="s">
         <v>433</v>
       </c>
@@ -4004,7 +3994,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="23.5">
+    <row r="33" spans="1:1" ht="23.25">
       <c r="A33" s="13" t="s">
         <v>436</v>
       </c>
@@ -4025,7 +4015,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="23.5">
+    <row r="39" spans="1:1" ht="23.25">
       <c r="A39" s="13" t="s">
         <v>439</v>
       </c>
@@ -4046,7 +4036,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="23.5">
+    <row r="45" spans="1:1" ht="23.25">
       <c r="A45" s="13" t="s">
         <v>442</v>
       </c>
@@ -4067,7 +4057,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="23.5">
+    <row r="51" spans="1:1" ht="23.25">
       <c r="A51" s="13" t="s">
         <v>445</v>
       </c>
@@ -4088,7 +4078,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="23.5">
+    <row r="57" spans="1:1" ht="23.25">
       <c r="A57" s="13" t="s">
         <v>448</v>
       </c>
@@ -4119,15 +4109,15 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.5">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4172,13 +4162,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B24" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="101.453125" customWidth="1"/>
+    <col min="1" max="1" width="101.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
@@ -4290,7 +4281,7 @@
       <c r="A22" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4298,7 +4289,7 @@
       <c r="A23" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4306,7 +4297,7 @@
       <c r="A24" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4314,7 +4305,7 @@
       <c r="A25" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4352,7 +4343,7 @@
       <c r="A32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4378,7 +4369,7 @@
       <c r="A36" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4386,7 +4377,7 @@
       <c r="A37" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4394,7 +4385,7 @@
       <c r="A38" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4412,7 +4403,7 @@
       <c r="A41" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4435,7 +4426,7 @@
       <c r="A45" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4560,12 +4551,12 @@
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="19" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" customHeight="1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="19" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4658,7 +4649,7 @@
       <c r="A89" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4686,16 +4677,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4F721-190E-4E6E-870E-BCE2C51A0B55}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="87.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.5">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.5">
+    <row r="7" spans="1:1" ht="18">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -4755,7 +4744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.5">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -4803,12 +4792,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.5">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4848,7 +4837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.5">
+    <row r="9" spans="1:1" ht="18">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -4896,12 +4885,12 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.5">
+    <row r="1" spans="2:2" ht="18">
       <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
@@ -5011,7 +5000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="17.5">
+    <row r="23" spans="2:2" ht="18">
       <c r="B23" s="2" t="s">
         <v>234</v>
       </c>
@@ -5051,7 +5040,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="17.5">
+    <row r="31" spans="2:2" ht="18">
       <c r="B31" s="2" t="s">
         <v>242</v>
       </c>
@@ -5091,7 +5080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="17.5">
+    <row r="39" spans="2:2" ht="18">
       <c r="B39" s="2" t="s">
         <v>250</v>
       </c>
@@ -5146,7 +5135,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="17.5">
+    <row r="50" spans="2:2" ht="18">
       <c r="B50" s="2" t="s">
         <v>261</v>
       </c>
@@ -5166,7 +5155,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="17.5">
+    <row r="54" spans="2:2" ht="18">
       <c r="B54" s="2" t="s">
         <v>265</v>
       </c>
@@ -5191,7 +5180,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="17.5">
+    <row r="59" spans="2:2" ht="18">
       <c r="B59" s="2" t="s">
         <v>270</v>
       </c>
@@ -5216,7 +5205,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="17.5">
+    <row r="64" spans="2:2" ht="18">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -5251,7 +5240,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="17.5">
+    <row r="71" spans="2:2" ht="18">
       <c r="B71" s="2" t="s">
         <v>281</v>
       </c>
@@ -5271,7 +5260,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="17.5">
+    <row r="75" spans="2:2" ht="18">
       <c r="B75" s="2" t="s">
         <v>285</v>
       </c>
@@ -5319,12 +5308,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.1796875" customWidth="1"/>
+    <col min="1" max="1" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.5">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5402,14 +5391,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5">
+    <row r="1" spans="1:6" ht="23.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5421,14 +5410,14 @@
     <row r="2" spans="1:6">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="F3" t="s">
         <v>389</v>
       </c>
@@ -5436,8 +5425,8 @@
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="F4" t="s">
         <v>390</v>
       </c>
@@ -5524,13 +5513,13 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="88.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5662,7 +5651,7 @@
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="17.5">
+    <row r="23" spans="1:2" ht="18">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -5722,7 +5711,7 @@
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" ht="17.5">
+    <row r="33" spans="1:2" ht="18">
       <c r="A33" s="3" t="s">
         <v>179</v>
       </c>
@@ -5788,7 +5777,7 @@
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="17.5">
+    <row r="44" spans="1:2" ht="18">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
@@ -5848,7 +5837,7 @@
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="17.5">
+    <row r="54" spans="1:2" ht="18">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -5902,7 +5891,7 @@
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="17.5">
+    <row r="63" spans="1:2" ht="18">
       <c r="A63" s="3" t="s">
         <v>204</v>
       </c>
@@ -5926,7 +5915,7 @@
       </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="17.5">
+    <row r="67" spans="1:2" ht="18">
       <c r="A67" s="2" t="s">
         <v>208</v>
       </c>
